--- a/mixFish data and code/Table2_mixfish.xlsx
+++ b/mixFish data and code/Table2_mixfish.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://aireyfamily-my.sharepoint.com/personal/montana_airey_us/Documents/GitHub/verbose-tribble/mixFish data and code/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{414BAA3C-1BEE-4237-8BE5-57C8E4EB95CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="126" documentId="8_{414BAA3C-1BEE-4237-8BE5-57C8E4EB95CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{420EBE9E-0A20-4630-A9C4-D0C8225DB303}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{C6DAFD02-25F6-43E3-B485-CBF40ABE4590}"/>
+    <workbookView xWindow="0" yWindow="720" windowWidth="12960" windowHeight="7365" xr2:uid="{C6DAFD02-25F6-43E3-B485-CBF40ABE4590}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="New.10.23.2022" sheetId="2" r:id="rId1"/>
+    <sheet name="Old" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="14">
   <si>
     <t xml:space="preserve">Predicted settlement </t>
   </si>
@@ -62,16 +63,32 @@
   <si>
     <t>90% CI</t>
   </si>
+  <si>
+    <t xml:space="preserve"> 0  - 35 m</t>
+  </si>
+  <si>
+    <t>Rhat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Captured </t>
+  </si>
+  <si>
+    <t>Predicted Settlement</t>
+  </si>
+  <si>
+    <t>45 - 92 m</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
-    <numFmt numFmtId="166" formatCode="0.00000"/>
-    <numFmt numFmtId="167" formatCode="0.000000"/>
+  <numFmts count="3">
+    <numFmt numFmtId="164" formatCode="0.00000"/>
+    <numFmt numFmtId="165" formatCode="0.000000"/>
+    <numFmt numFmtId="167" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -85,6 +102,12 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -94,7 +117,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -256,64 +279,94 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -325,6 +378,15 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -334,16 +396,90 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="2" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="2" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -659,431 +795,636 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18A263D0-1CD1-4B50-BE13-B5AEE404FA97}">
+  <dimension ref="B5:K12"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="3" max="3" width="11.36328125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="5" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B5" s="42"/>
+      <c r="C5" s="42"/>
+      <c r="D5" s="43" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="44"/>
+      <c r="F5" s="44"/>
+      <c r="G5" s="44"/>
+      <c r="H5" s="44"/>
+      <c r="I5" s="44"/>
+      <c r="J5" s="44"/>
+      <c r="K5" s="45"/>
+    </row>
+    <row r="6" spans="2:11" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B6" s="42"/>
+      <c r="C6" s="42"/>
+      <c r="D6" s="34" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="22"/>
+      <c r="F6" s="22"/>
+      <c r="G6" s="23"/>
+      <c r="H6" s="34" t="s">
+        <v>13</v>
+      </c>
+      <c r="I6" s="22"/>
+      <c r="J6" s="22"/>
+      <c r="K6" s="23"/>
+    </row>
+    <row r="7" spans="2:11" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B7" s="42"/>
+      <c r="C7" s="42"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="F7" s="33"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="J7" s="33"/>
+      <c r="K7" s="35"/>
+    </row>
+    <row r="8" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B8" s="42"/>
+      <c r="C8" s="42"/>
+      <c r="D8" s="36" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8" s="37">
+        <v>0.05</v>
+      </c>
+      <c r="F8" s="38">
+        <v>0.95</v>
+      </c>
+      <c r="G8" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="H8" s="36" t="s">
+        <v>7</v>
+      </c>
+      <c r="I8" s="37">
+        <v>0.05</v>
+      </c>
+      <c r="J8" s="38">
+        <v>0.95</v>
+      </c>
+      <c r="K8" s="36" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="2:11" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B9" s="39" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="46">
+        <v>0.65500000000000003</v>
+      </c>
+      <c r="E9" s="47">
+        <v>22.11</v>
+      </c>
+      <c r="F9" s="48">
+        <v>99.5</v>
+      </c>
+      <c r="G9" s="49">
+        <v>1</v>
+      </c>
+      <c r="H9" s="46">
+        <v>0.34499999999999997</v>
+      </c>
+      <c r="I9" s="47">
+        <v>5</v>
+      </c>
+      <c r="J9" s="51">
+        <v>77.88</v>
+      </c>
+      <c r="K9" s="51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="2:11" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B10" s="40"/>
+      <c r="C10" s="31"/>
+      <c r="D10" s="52"/>
+      <c r="E10" s="53"/>
+      <c r="F10" s="54"/>
+      <c r="G10" s="55"/>
+      <c r="H10" s="52"/>
+      <c r="I10" s="53"/>
+      <c r="J10" s="56"/>
+      <c r="K10" s="56"/>
+    </row>
+    <row r="11" spans="2:11" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B11" s="40"/>
+      <c r="C11" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" s="46">
+        <v>4.1000000000000002E-2</v>
+      </c>
+      <c r="E11" s="47">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="F11" s="48">
+        <v>15.81</v>
+      </c>
+      <c r="G11" s="49">
+        <v>1</v>
+      </c>
+      <c r="H11" s="46">
+        <v>0.95899999999999996</v>
+      </c>
+      <c r="I11" s="50">
+        <v>84.18</v>
+      </c>
+      <c r="J11" s="51">
+        <v>99.99</v>
+      </c>
+      <c r="K11" s="51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B12" s="41"/>
+      <c r="C12" s="32"/>
+      <c r="D12" s="57"/>
+      <c r="E12" s="58"/>
+      <c r="F12" s="59"/>
+      <c r="G12" s="60"/>
+      <c r="H12" s="57"/>
+      <c r="I12" s="61"/>
+      <c r="J12" s="62"/>
+      <c r="K12" s="62"/>
+    </row>
+  </sheetData>
+  <mergeCells count="24">
+    <mergeCell ref="D5:K5"/>
+    <mergeCell ref="H11:H12"/>
+    <mergeCell ref="I11:I12"/>
+    <mergeCell ref="J11:J12"/>
+    <mergeCell ref="K11:K12"/>
+    <mergeCell ref="D6:G6"/>
+    <mergeCell ref="H6:K6"/>
+    <mergeCell ref="H9:H10"/>
+    <mergeCell ref="I9:I10"/>
+    <mergeCell ref="J9:J10"/>
+    <mergeCell ref="K9:K10"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="B9:B12"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="G9:G10"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37EF5196-8C3D-49EB-9E5E-D11E686C2947}">
   <dimension ref="F12:P27"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16:F19"/>
+    <sheetView showGridLines="0" topLeftCell="D5" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="Q18" sqref="Q18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="7" max="7" width="17.42578125" customWidth="1"/>
-    <col min="11" max="11" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.453125" customWidth="1"/>
+    <col min="11" max="11" width="9.54296875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.7265625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="12" spans="6:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="F12" s="3"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="1" t="s">
+    <row r="12" spans="6:16" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="F12" s="1"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
-      <c r="K12" s="1"/>
-      <c r="L12" s="1"/>
-      <c r="M12" s="1"/>
-      <c r="N12" s="1"/>
-      <c r="O12" s="1"/>
-      <c r="P12" s="2"/>
-    </row>
-    <row r="13" spans="6:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="F13" s="7"/>
-      <c r="G13" s="8"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="4" t="s">
+      <c r="I12" s="22"/>
+      <c r="J12" s="22"/>
+      <c r="K12" s="22"/>
+      <c r="L12" s="22"/>
+      <c r="M12" s="22"/>
+      <c r="N12" s="22"/>
+      <c r="O12" s="22"/>
+      <c r="P12" s="23"/>
+    </row>
+    <row r="13" spans="6:16" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="F13" s="5"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="J13" s="14"/>
-      <c r="K13" s="3"/>
-      <c r="L13" s="4" t="s">
+      <c r="J13" s="12"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="M13" s="14"/>
-      <c r="N13" s="3"/>
-      <c r="O13" s="4" t="s">
+      <c r="M13" s="12"/>
+      <c r="N13" s="1"/>
+      <c r="O13" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="P13" s="14"/>
-    </row>
-    <row r="14" spans="6:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="F14" s="5"/>
-      <c r="G14" s="6"/>
-      <c r="H14" s="5"/>
-      <c r="I14" s="15" t="s">
+      <c r="P13" s="12"/>
+    </row>
+    <row r="14" spans="6:16" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="F14" s="3"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="J14" s="16"/>
-      <c r="K14" s="5"/>
-      <c r="L14" s="15" t="s">
+      <c r="J14" s="28"/>
+      <c r="K14" s="3"/>
+      <c r="L14" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="M14" s="16"/>
-      <c r="N14" s="5"/>
-      <c r="O14" s="15" t="s">
+      <c r="M14" s="28"/>
+      <c r="N14" s="3"/>
+      <c r="O14" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="P14" s="16"/>
-    </row>
-    <row r="15" spans="6:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="F15" s="12"/>
-      <c r="G15" s="11"/>
-      <c r="H15" s="3" t="s">
+      <c r="P14" s="28"/>
+    </row>
+    <row r="15" spans="6:16" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="F15" s="10"/>
+      <c r="G15" s="9"/>
+      <c r="H15" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I15" s="17">
+      <c r="I15" s="13">
         <v>0.05</v>
       </c>
-      <c r="J15" s="18">
+      <c r="J15" s="14">
         <v>0.95</v>
       </c>
-      <c r="K15" s="3" t="s">
+      <c r="K15" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="L15" s="17">
+      <c r="L15" s="13">
         <v>0.05</v>
       </c>
-      <c r="M15" s="18">
+      <c r="M15" s="14">
         <v>0.95</v>
       </c>
-      <c r="N15" s="3" t="s">
+      <c r="N15" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="O15" s="17">
+      <c r="O15" s="13">
         <v>0.05</v>
       </c>
-      <c r="P15" s="18">
+      <c r="P15" s="14">
         <v>0.95</v>
       </c>
     </row>
-    <row r="16" spans="6:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="F16" s="19" t="s">
+    <row r="16" spans="6:16" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="F16" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="G16" s="7" t="s">
+      <c r="G16" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="H16" s="7">
+      <c r="H16" s="5">
         <v>7.04</v>
       </c>
-      <c r="I16" s="25">
+      <c r="I16" s="18">
         <v>0</v>
       </c>
-      <c r="J16" s="9">
+      <c r="J16" s="7">
         <v>36.549999999999997</v>
       </c>
-      <c r="K16" s="7">
+      <c r="K16" s="5">
         <v>36.249000000000002</v>
       </c>
-      <c r="L16" s="8">
+      <c r="L16" s="6">
         <v>6.6400000000000001E-3</v>
       </c>
-      <c r="M16" s="9">
+      <c r="M16" s="7">
         <v>82.450500000000005</v>
       </c>
-      <c r="N16" s="7">
+      <c r="N16" s="5">
         <v>8.08</v>
       </c>
-      <c r="O16" s="8">
+      <c r="O16" s="6">
         <v>3.0000000000000001E-5</v>
       </c>
-      <c r="P16" s="9">
+      <c r="P16" s="7">
         <v>40.04</v>
       </c>
     </row>
-    <row r="17" spans="6:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="F17" s="20"/>
-      <c r="G17" s="5" t="s">
+    <row r="17" spans="6:16" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="F17" s="25"/>
+      <c r="G17" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="H17" s="28">
+      <c r="H17" s="21">
         <v>1.6</v>
       </c>
-      <c r="I17" s="6">
+      <c r="I17" s="4">
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="J17" s="10">
+      <c r="J17" s="8">
         <v>7.76</v>
       </c>
-      <c r="K17" s="5">
+      <c r="K17" s="3">
         <v>87.325999999999993</v>
       </c>
-      <c r="L17" s="6">
+      <c r="L17" s="4">
         <v>7.5156499999999999</v>
       </c>
-      <c r="M17" s="10">
+      <c r="M17" s="8">
         <v>99.8005</v>
       </c>
-      <c r="N17" s="28">
+      <c r="N17" s="21">
         <v>2.2999999999999998</v>
       </c>
-      <c r="O17" s="6">
+      <c r="O17" s="4">
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="P17" s="10">
+      <c r="P17" s="8">
         <v>10.71</v>
       </c>
     </row>
-    <row r="18" spans="6:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="F18" s="20"/>
-      <c r="G18" s="5" t="s">
+    <row r="18" spans="6:16" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="F18" s="25"/>
+      <c r="G18" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H18" s="5">
+      <c r="H18" s="3">
         <v>2.41</v>
       </c>
-      <c r="I18" s="26">
+      <c r="I18" s="19">
         <v>0</v>
       </c>
-      <c r="J18" s="10">
+      <c r="J18" s="8">
         <v>12.25</v>
       </c>
-      <c r="K18" s="5">
+      <c r="K18" s="3">
         <v>84.477000000000004</v>
       </c>
-      <c r="L18" s="6">
+      <c r="L18" s="4">
         <v>11.9815</v>
       </c>
-      <c r="M18" s="10">
+      <c r="M18" s="8">
         <v>99.600499999999997</v>
       </c>
-      <c r="N18" s="5">
+      <c r="N18" s="3">
         <v>3.58</v>
       </c>
-      <c r="O18" s="26">
+      <c r="O18" s="19">
         <v>0</v>
       </c>
-      <c r="P18" s="10">
+      <c r="P18" s="8">
         <v>16.350000000000001</v>
       </c>
     </row>
-    <row r="19" spans="6:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="F19" s="21"/>
-      <c r="G19" s="12" t="s">
+    <row r="19" spans="6:16" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="F19" s="26"/>
+      <c r="G19" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="H19" s="12">
+      <c r="H19" s="10">
         <v>9.6999999999999993</v>
       </c>
-      <c r="I19" s="11">
+      <c r="I19" s="9">
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="J19" s="13">
+      <c r="J19" s="11">
         <v>58.86</v>
       </c>
-      <c r="K19" s="12">
+      <c r="K19" s="10">
         <v>3.1520000000000001</v>
       </c>
-      <c r="L19" s="11">
+      <c r="L19" s="9">
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="M19" s="13">
+      <c r="M19" s="11">
         <v>15.464499999999999</v>
       </c>
-      <c r="N19" s="12">
+      <c r="N19" s="10">
         <v>2.68</v>
       </c>
-      <c r="O19" s="11">
+      <c r="O19" s="9">
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="P19" s="13">
+      <c r="P19" s="11">
         <v>14.26</v>
       </c>
     </row>
-    <row r="20" spans="6:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="F20" s="5"/>
-      <c r="G20" s="6"/>
-      <c r="H20" s="5"/>
-      <c r="I20" s="6"/>
-      <c r="J20" s="10"/>
-      <c r="K20" s="5"/>
-      <c r="L20" s="6"/>
-      <c r="M20" s="10"/>
-      <c r="N20" s="5"/>
-      <c r="O20" s="6"/>
-      <c r="P20" s="10"/>
-    </row>
-    <row r="21" spans="6:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="F21" s="5"/>
-      <c r="G21" s="6"/>
-      <c r="H21" s="3"/>
-      <c r="I21" s="4" t="s">
+    <row r="20" spans="6:16" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="F20" s="3"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="4"/>
+      <c r="J20" s="8"/>
+      <c r="K20" s="3"/>
+      <c r="L20" s="4"/>
+      <c r="M20" s="8"/>
+      <c r="N20" s="3"/>
+      <c r="O20" s="4"/>
+      <c r="P20" s="8"/>
+    </row>
+    <row r="21" spans="6:16" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="F21" s="3"/>
+      <c r="G21" s="4"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="J21" s="14"/>
-      <c r="K21" s="3"/>
-      <c r="L21" s="4" t="s">
+      <c r="J21" s="12"/>
+      <c r="K21" s="1"/>
+      <c r="L21" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="M21" s="14"/>
-      <c r="N21" s="5"/>
-      <c r="O21" s="6"/>
-      <c r="P21" s="10"/>
-    </row>
-    <row r="22" spans="6:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="F22" s="5"/>
-      <c r="G22" s="6"/>
-      <c r="H22" s="5"/>
-      <c r="I22" s="15" t="s">
+      <c r="M21" s="12"/>
+      <c r="N21" s="3"/>
+      <c r="O21" s="4"/>
+      <c r="P21" s="8"/>
+    </row>
+    <row r="22" spans="6:16" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="F22" s="3"/>
+      <c r="G22" s="4"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="J22" s="16"/>
-      <c r="K22" s="5"/>
-      <c r="L22" s="15" t="s">
+      <c r="J22" s="28"/>
+      <c r="K22" s="3"/>
+      <c r="L22" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="M22" s="16"/>
-      <c r="N22" s="5"/>
-      <c r="O22" s="6"/>
-      <c r="P22" s="10"/>
-    </row>
-    <row r="23" spans="6:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F23" s="5"/>
-      <c r="G23" s="6"/>
-      <c r="H23" s="3" t="s">
+      <c r="M22" s="28"/>
+      <c r="N22" s="3"/>
+      <c r="O22" s="4"/>
+      <c r="P22" s="8"/>
+    </row>
+    <row r="23" spans="6:16" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F23" s="3"/>
+      <c r="G23" s="4"/>
+      <c r="H23" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I23" s="17">
+      <c r="I23" s="13">
         <v>0.05</v>
       </c>
-      <c r="J23" s="18">
+      <c r="J23" s="14">
         <v>0.95</v>
       </c>
-      <c r="K23" s="3" t="s">
+      <c r="K23" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="L23" s="17">
+      <c r="L23" s="13">
         <v>0.05</v>
       </c>
-      <c r="M23" s="18">
+      <c r="M23" s="14">
         <v>0.95</v>
       </c>
-      <c r="N23" s="5"/>
-      <c r="O23" s="6"/>
-      <c r="P23" s="10"/>
-    </row>
-    <row r="24" spans="6:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="F24" s="19" t="s">
+      <c r="N23" s="3"/>
+      <c r="O23" s="4"/>
+      <c r="P23" s="8"/>
+    </row>
+    <row r="24" spans="6:16" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="F24" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="G24" s="22" t="s">
+      <c r="G24" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="H24" s="5">
+      <c r="H24" s="3">
         <v>30.83</v>
       </c>
-      <c r="I24" s="6">
+      <c r="I24" s="4">
         <v>1.8799999999999999E-3</v>
       </c>
-      <c r="J24" s="10">
+      <c r="J24" s="8">
         <v>82.93</v>
       </c>
-      <c r="K24" s="5">
+      <c r="K24" s="3">
         <v>17.79</v>
       </c>
-      <c r="L24" s="6">
+      <c r="L24" s="4">
         <v>3.0000000000000001E-5</v>
       </c>
-      <c r="M24" s="10">
+      <c r="M24" s="8">
         <v>74.8</v>
       </c>
-      <c r="N24" s="5"/>
-      <c r="O24" s="6"/>
-      <c r="P24" s="10"/>
-    </row>
-    <row r="25" spans="6:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="F25" s="20"/>
-      <c r="G25" s="23" t="s">
+      <c r="N24" s="3"/>
+      <c r="O24" s="4"/>
+      <c r="P24" s="8"/>
+    </row>
+    <row r="25" spans="6:16" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="F25" s="25"/>
+      <c r="G25" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="H25" s="28">
+      <c r="H25" s="21">
         <v>1.8</v>
       </c>
-      <c r="I25" s="26">
+      <c r="I25" s="19">
         <v>0</v>
       </c>
-      <c r="J25" s="10">
+      <c r="J25" s="8">
         <v>8.9700000000000006</v>
       </c>
-      <c r="K25" s="5">
+      <c r="K25" s="3">
         <v>6.98</v>
       </c>
-      <c r="L25" s="6">
+      <c r="L25" s="4">
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="M25" s="10">
+      <c r="M25" s="8">
         <v>81.48</v>
       </c>
-      <c r="N25" s="5"/>
-      <c r="O25" s="6"/>
-      <c r="P25" s="10"/>
-    </row>
-    <row r="26" spans="6:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="F26" s="20"/>
-      <c r="G26" s="23" t="s">
+      <c r="N25" s="3"/>
+      <c r="O25" s="4"/>
+      <c r="P25" s="8"/>
+    </row>
+    <row r="26" spans="6:16" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="F26" s="25"/>
+      <c r="G26" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="H26" s="5">
+      <c r="H26" s="3">
         <v>2.5299999999999998</v>
       </c>
-      <c r="I26" s="6">
+      <c r="I26" s="4">
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="J26" s="10">
+      <c r="J26" s="8">
         <v>13.18</v>
       </c>
-      <c r="K26" s="28">
+      <c r="K26" s="21">
         <v>7</v>
       </c>
-      <c r="L26" s="27">
+      <c r="L26" s="20">
         <v>0</v>
       </c>
-      <c r="M26" s="10">
+      <c r="M26" s="8">
         <v>57.78</v>
       </c>
-      <c r="N26" s="5"/>
-      <c r="O26" s="6"/>
-      <c r="P26" s="10"/>
-    </row>
-    <row r="27" spans="6:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="F27" s="21"/>
-      <c r="G27" s="24" t="s">
+      <c r="N26" s="3"/>
+      <c r="O26" s="4"/>
+      <c r="P26" s="8"/>
+    </row>
+    <row r="27" spans="6:16" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="F27" s="26"/>
+      <c r="G27" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="H27" s="12">
+      <c r="H27" s="10">
         <v>64.42</v>
       </c>
-      <c r="I27" s="11">
+      <c r="I27" s="9">
         <v>1.3950000000000001E-2</v>
       </c>
-      <c r="J27" s="13">
+      <c r="J27" s="11">
         <v>99.16</v>
       </c>
-      <c r="K27" s="12">
+      <c r="K27" s="10">
         <v>20.05</v>
       </c>
-      <c r="L27" s="11">
+      <c r="L27" s="9">
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="M27" s="13">
+      <c r="M27" s="11">
         <v>95.19</v>
       </c>
-      <c r="N27" s="12"/>
-      <c r="O27" s="11"/>
-      <c r="P27" s="13"/>
+      <c r="N27" s="10"/>
+      <c r="O27" s="9"/>
+      <c r="P27" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="8">
+    <mergeCell ref="F24:F27"/>
+    <mergeCell ref="I22:J22"/>
+    <mergeCell ref="L22:M22"/>
     <mergeCell ref="H12:P12"/>
     <mergeCell ref="F16:F19"/>
     <mergeCell ref="I14:J14"/>
     <mergeCell ref="L14:M14"/>
     <mergeCell ref="O14:P14"/>
-    <mergeCell ref="F24:F27"/>
-    <mergeCell ref="I22:J22"/>
-    <mergeCell ref="L22:M22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
